--- a/testData/NearbyDoctors_TestData.xlsx
+++ b/testData/NearbyDoctors_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="17">
   <si>
     <t>Location</t>
   </si>
@@ -549,12 +549,12 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
@@ -564,7 +564,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/testData/NearbyDoctors_TestData.xlsx
+++ b/testData/NearbyDoctors_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="17">
   <si>
     <t>Location</t>
   </si>

--- a/testData/NearbyDoctors_TestData.xlsx
+++ b/testData/NearbyDoctors_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="17">
   <si>
     <t>Location</t>
   </si>
@@ -549,22 +549,22 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/testData/NearbyDoctors_TestData.xlsx
+++ b/testData/NearbyDoctors_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="17">
   <si>
     <t>Location</t>
   </si>
@@ -544,12 +544,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
@@ -559,12 +559,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/testData/NearbyDoctors_TestData.xlsx
+++ b/testData/NearbyDoctors_TestData.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="17">
   <si>
     <t>Location</t>
   </si>
@@ -544,12 +544,12 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
